--- a/Monk-manuscript/Sample_size2.xlsx
+++ b/Monk-manuscript/Sample_size2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D8048-76E6-4191-8F17-586054621AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE19E9-8E8E-44DD-B05A-BCD9DF39C6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_size2" sheetId="1" r:id="rId1"/>
@@ -31,76 +31,76 @@
     <t>16306 (16%)</t>
   </si>
   <si>
-    <t>4891 (56%)</t>
-  </si>
-  <si>
-    <t>919 (75%)</t>
-  </si>
-  <si>
     <t>Blue Rockfish</t>
   </si>
   <si>
     <t>15283 (44%)</t>
   </si>
   <si>
-    <t>10445 (70%)</t>
-  </si>
-  <si>
-    <t>1962 (92%)</t>
-  </si>
-  <si>
     <t>Brown Rockfish</t>
   </si>
   <si>
     <t>15736 (16%)</t>
   </si>
   <si>
-    <t>4717 (61%)</t>
-  </si>
-  <si>
-    <t>1104 (73%)</t>
-  </si>
-  <si>
     <t>China Rockfish</t>
   </si>
   <si>
     <t>14865 (8%)</t>
   </si>
   <si>
-    <t>2356 (55%)</t>
-  </si>
-  <si>
-    <t>1160 (70%)</t>
-  </si>
-  <si>
     <t>Gopher Rockfish</t>
   </si>
   <si>
     <t>14476 (31%)</t>
   </si>
   <si>
-    <t>7788 (65%)</t>
-  </si>
-  <si>
-    <t>1700 (84%)</t>
-  </si>
-  <si>
     <t>Vermilion Rockfish</t>
   </si>
   <si>
     <t>14713 (30%)</t>
   </si>
   <si>
-    <t>7415 (62%)</t>
-  </si>
-  <si>
-    <t>1849 (87%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Habitat-informed </t>
   </si>
   <si>
     <t>Stephens-MacCall filtered</t>
+  </si>
+  <si>
+    <t>706 (68%)</t>
+  </si>
+  <si>
+    <t>1813 (91%)</t>
+  </si>
+  <si>
+    <t>806 (62%)</t>
+  </si>
+  <si>
+    <t>798 (57%)</t>
+  </si>
+  <si>
+    <t>1449 (81%)</t>
+  </si>
+  <si>
+    <t>1627 (85%)</t>
+  </si>
+  <si>
+    <t>3038 (30%)</t>
+  </si>
+  <si>
+    <t>7490 (60%)</t>
+  </si>
+  <si>
+    <t>2740 (31%)</t>
+  </si>
+  <si>
+    <t>1331 (22%)</t>
+  </si>
+  <si>
+    <t>5088 (45%)</t>
+  </si>
+  <si>
+    <t>5040 (45%)</t>
   </si>
 </sst>
 </file>
@@ -943,28 +943,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -972,80 +976,80 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
